--- a/data/evaluation/evaluation_South_Winter_Peppers.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Peppers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1274.203776009924</v>
+        <v>1263.998677251948</v>
       </c>
       <c r="C4" t="n">
-        <v>3997642.402912256</v>
+        <v>3979372.463689437</v>
       </c>
       <c r="D4" t="n">
-        <v>1999.410513854585</v>
+        <v>1994.836450361141</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07319079890714053</v>
+        <v>0.07742648235966254</v>
       </c>
     </row>
     <row r="5">
